--- a/TELE2_pdf_converted_to_excel.xlsx
+++ b/TELE2_pdf_converted_to_excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://copx-my.sharepoint.com/personal/talor_k_cropx_com/Documents/Talor/scripts/select_sim_by_country/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="191" documentId="11_64552761D8B4A75FB6252CCA51E7D9EA598D53B0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{59ED0051-6E9C-4CAC-A5EC-9D048DF8DD94}"/>
+  <xr:revisionPtr revIDLastSave="200" documentId="11_64552761D8B4A75FB6252CCA51E7D9EA598D53B0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{47C3B886-2B51-4C45-88B4-69482C67A19D}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table_1" sheetId="1" r:id="rId1"/>
@@ -10649,8 +10649,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F449"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:I1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="A62" sqref="A62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
